--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H2">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.172943</v>
+        <v>0.5282606666666667</v>
       </c>
       <c r="N2">
-        <v>6.518829</v>
+        <v>1.584782</v>
       </c>
       <c r="O2">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="P2">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="Q2">
-        <v>137.354482321724</v>
+        <v>7.040551280591779</v>
       </c>
       <c r="R2">
-        <v>1236.190340895516</v>
+        <v>63.364961525326</v>
       </c>
       <c r="S2">
-        <v>0.08522201352910079</v>
+        <v>0.008220458510387049</v>
       </c>
       <c r="T2">
-        <v>0.08522201352910082</v>
+        <v>0.008220458510387049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H3">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.934372000000002</v>
+        <v>8.934372</v>
       </c>
       <c r="N3">
         <v>26.803116</v>
       </c>
       <c r="O3">
-        <v>0.7118230851489484</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="P3">
-        <v>0.7118230851489485</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="Q3">
-        <v>564.7529829036961</v>
+        <v>119.075502294732</v>
       </c>
       <c r="R3">
-        <v>5082.776846133264</v>
+        <v>1071.679520652588</v>
       </c>
       <c r="S3">
-        <v>0.3504027355793592</v>
+        <v>0.1390310484515165</v>
       </c>
       <c r="T3">
-        <v>0.3504027355793592</v>
+        <v>0.1390310484515165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H4">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.332237</v>
       </c>
       <c r="O4">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="P4">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="Q4">
-        <v>91.28206468217201</v>
+        <v>19.24639272668233</v>
       </c>
       <c r="R4">
-        <v>821.538582139548</v>
+        <v>173.217534540141</v>
       </c>
       <c r="S4">
-        <v>0.05663623945731221</v>
+        <v>0.02247184440236175</v>
       </c>
       <c r="T4">
-        <v>0.05663623945731221</v>
+        <v>0.02247184440236175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.172943</v>
+        <v>0.5282606666666667</v>
       </c>
       <c r="N5">
-        <v>6.518829</v>
+        <v>1.584782</v>
       </c>
       <c r="O5">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="P5">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="Q5">
-        <v>94.10379026112399</v>
+        <v>22.87742061305866</v>
       </c>
       <c r="R5">
-        <v>846.9341123501159</v>
+        <v>205.896785517528</v>
       </c>
       <c r="S5">
-        <v>0.05838698782314709</v>
+        <v>0.02671138657746059</v>
       </c>
       <c r="T5">
-        <v>0.05838698782314711</v>
+        <v>0.02671138657746059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.934372000000002</v>
+        <v>8.934372</v>
       </c>
       <c r="N6">
         <v>26.803116</v>
       </c>
       <c r="O6">
-        <v>0.7118230851489484</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="P6">
-        <v>0.7118230851489485</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="Q6">
-        <v>386.921455741296</v>
+        <v>386.9214557412959</v>
       </c>
       <c r="R6">
-        <v>3482.293101671664</v>
+        <v>3482.293101671663</v>
       </c>
       <c r="S6">
-        <v>0.2400666143435269</v>
+        <v>0.4517645915693888</v>
       </c>
       <c r="T6">
-        <v>0.240066614343527</v>
+        <v>0.4517645915693888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.332237</v>
       </c>
       <c r="O7">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="P7">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="Q7">
         <v>62.538827450372</v>
@@ -880,10 +880,10 @@
         <v>562.8494470533479</v>
       </c>
       <c r="S7">
-        <v>0.03880240898572233</v>
+        <v>0.07301954291011517</v>
       </c>
       <c r="T7">
-        <v>0.03880240898572233</v>
+        <v>0.07301954291011517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>21.891734</v>
       </c>
       <c r="H8">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.172943</v>
+        <v>0.5282606666666667</v>
       </c>
       <c r="N8">
-        <v>6.518829</v>
+        <v>1.584782</v>
       </c>
       <c r="O8">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="P8">
-        <v>0.1731236386970244</v>
+        <v>0.04843445786516468</v>
       </c>
       <c r="Q8">
-        <v>47.569490153162</v>
+        <v>11.56454199732934</v>
       </c>
       <c r="R8">
-        <v>428.125411378458</v>
+        <v>104.080877975964</v>
       </c>
       <c r="S8">
-        <v>0.0295146373447765</v>
+        <v>0.01350261277731704</v>
       </c>
       <c r="T8">
-        <v>0.02951463734477651</v>
+        <v>0.01350261277731704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>21.891734</v>
       </c>
       <c r="H9">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.934372000000002</v>
+        <v>8.934372</v>
       </c>
       <c r="N9">
         <v>26.803116</v>
       </c>
       <c r="O9">
-        <v>0.7118230851489484</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="P9">
-        <v>0.7118230851489485</v>
+        <v>0.8191627571218761</v>
       </c>
       <c r="Q9">
         <v>195.588895281048</v>
@@ -1004,10 +1004,10 @@
         <v>1760.300057529432</v>
       </c>
       <c r="S9">
-        <v>0.1213537352260623</v>
+        <v>0.2283671171009708</v>
       </c>
       <c r="T9">
-        <v>0.1213537352260623</v>
+        <v>0.2283671171009708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>21.891734</v>
       </c>
       <c r="H10">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>4.332237</v>
       </c>
       <c r="O10">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="P10">
-        <v>0.1150532761540272</v>
+        <v>0.1324027850129592</v>
       </c>
       <c r="Q10">
-        <v>31.613393342986</v>
+        <v>31.61339334298601</v>
       </c>
       <c r="R10">
-        <v>284.520540086874</v>
+        <v>284.5205400868741</v>
       </c>
       <c r="S10">
-        <v>0.01961462771099266</v>
+        <v>0.03691139770048223</v>
       </c>
       <c r="T10">
-        <v>0.01961462771099265</v>
+        <v>0.03691139770048223</v>
       </c>
     </row>
   </sheetData>
